--- a/src/main/resources/dataprovider/data.xlsx
+++ b/src/main/resources/dataprovider/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramak\git\cucumber001\src\main\resources\dataprovider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B08071-905E-4E6F-98D1-B0292F166892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>Login to flipkart 1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +46,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +355,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/dataprovider/data.xlsx
+++ b/src/main/resources/dataprovider/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramak\git\cucumber001\src\main\resources\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B08071-905E-4E6F-98D1-B0292F166892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE90F8-91C9-4669-9348-76A69CDFE9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>Login to flipkart 1</t>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>ramakrishna</t>
+  </si>
+  <si>
+    <t>lohith</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>getting excel values</t>
   </si>
 </sst>
 </file>
@@ -356,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -367,14 +385,32 @@
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/dataprovider/data.xlsx
+++ b/src/main/resources/dataprovider/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramak\git\cucumber001\src\main\resources\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EE90F8-91C9-4669-9348-76A69CDFE9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A77B368-D722-4949-8203-0C73FC225FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -49,19 +49,44 @@
   </si>
   <si>
     <t>getting excel values</t>
+  </si>
+  <si>
+    <t>writing excel values</t>
+  </si>
+  <si>
+    <t>uygf</t>
+  </si>
+  <si>
+    <t>jhwgf</t>
+  </si>
+  <si>
+    <t>hjgf</t>
+  </si>
+  <si>
+    <t>Lohith</t>
+  </si>
+  <si>
+    <t>Sruthi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -90,10 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,18 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -411,9 +439,24 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/dataprovider/data.xlsx
+++ b/src/main/resources/dataprovider/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramak\git\cucumber001\src\main\resources\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A77B368-D722-4949-8203-0C73FC225FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0749B08-151B-454A-BEF0-0A144DDA0656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -52,15 +52,6 @@
   </si>
   <si>
     <t>writing excel values</t>
-  </si>
-  <si>
-    <t>uygf</t>
-  </si>
-  <si>
-    <t>jhwgf</t>
-  </si>
-  <si>
-    <t>hjgf</t>
   </si>
   <si>
     <t>Lohith</t>
@@ -405,7 +396,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -417,13 +408,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -449,10 +440,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/dataprovider/data.xlsx
+++ b/src/main/resources/dataprovider/data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>TestCaseName</t>
   </si>

--- a/src/main/resources/dataprovider/data.xlsx
+++ b/src/main/resources/dataprovider/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramak\git\cucumber001\src\main\resources\dataprovider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0749B08-151B-454A-BEF0-0A144DDA0656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BABC3E-2F9B-4D31-B0F7-88D8832CC1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -437,10 +437,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
